--- a/04_data/hrm.xlsx
+++ b/04_data/hrm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6399457f31c7600a/Documents/Personal/Learning/Programming/Github/pytutor/04_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{D93C9B40-ED47-4344-B7E9-73E776B68CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF3E245C-EA68-4D4C-8E7E-623BEC91FABD}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="8_{D93C9B40-ED47-4344-B7E9-73E776B68CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E0AF11E-8924-4A97-8361-40295DA0A0AB}"/>
   <bookViews>
     <workbookView xWindow="-30828" yWindow="-2316" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -964,7 +964,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1100,7 +1100,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1254,10 +1254,13 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1336,6 +1339,9 @@
       <c r="I5">
         <v>1</v>
       </c>
+      <c r="J5">
+        <v>99</v>
+      </c>
       <c r="K5">
         <v>1</v>
       </c>
@@ -1561,6 +1567,9 @@
       <c r="I8">
         <v>0</v>
       </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
       <c r="K8">
         <v>1</v>
       </c>
@@ -1638,6 +1647,9 @@
       <c r="I9">
         <v>1</v>
       </c>
+      <c r="J9">
+        <v>99</v>
+      </c>
       <c r="K9">
         <v>1</v>
       </c>
@@ -1860,6 +1872,9 @@
       <c r="I12">
         <v>0</v>
       </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
       <c r="K12">
         <v>1</v>
       </c>
@@ -1937,6 +1952,9 @@
       <c r="I13">
         <v>0</v>
       </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
       <c r="K13">
         <v>1</v>
       </c>
@@ -2014,6 +2032,9 @@
       <c r="I14">
         <v>0</v>
       </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
       <c r="K14">
         <v>1</v>
       </c>
@@ -2091,6 +2112,9 @@
       <c r="I15">
         <v>0</v>
       </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
       <c r="K15">
         <v>1</v>
       </c>
@@ -2165,6 +2189,9 @@
       <c r="I16">
         <v>0</v>
       </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
       <c r="K16">
         <v>1</v>
       </c>
@@ -2544,6 +2571,9 @@
       <c r="I21">
         <v>0</v>
       </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
       <c r="K21">
         <v>1</v>
       </c>
@@ -3006,6 +3036,9 @@
       <c r="I27">
         <v>0</v>
       </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
       <c r="K27">
         <v>1</v>
       </c>
@@ -3237,6 +3270,9 @@
       <c r="I30">
         <v>0</v>
       </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
       <c r="K30">
         <v>1</v>
       </c>
@@ -3388,6 +3424,9 @@
       <c r="I32">
         <v>1</v>
       </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
       <c r="K32">
         <v>1</v>
       </c>
@@ -3773,6 +3812,9 @@
       <c r="I37">
         <v>0</v>
       </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
       <c r="K37">
         <v>1</v>
       </c>
@@ -4004,6 +4046,9 @@
       <c r="I40">
         <v>0</v>
       </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
       <c r="K40">
         <v>1</v>
       </c>
@@ -4540,6 +4585,9 @@
       <c r="I47">
         <v>0</v>
       </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
       <c r="K47">
         <v>1</v>
       </c>
@@ -5079,6 +5127,9 @@
       <c r="I54">
         <v>0</v>
       </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
       <c r="K54">
         <v>1</v>
       </c>
@@ -5156,6 +5207,9 @@
       <c r="I55">
         <v>0</v>
       </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
       <c r="K55">
         <v>1</v>
       </c>
@@ -5233,6 +5287,9 @@
       <c r="I56">
         <v>0</v>
       </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
       <c r="K56">
         <v>1</v>
       </c>
@@ -5387,6 +5444,9 @@
       <c r="I58">
         <v>1</v>
       </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
       <c r="K58">
         <v>1</v>
       </c>
@@ -5464,6 +5524,9 @@
       <c r="I59">
         <v>0</v>
       </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
       <c r="K59">
         <v>1</v>
       </c>
@@ -5541,6 +5604,9 @@
       <c r="I60">
         <v>1</v>
       </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
       <c r="K60">
         <v>1</v>
       </c>
@@ -5618,6 +5684,9 @@
       <c r="I61">
         <v>0</v>
       </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
       <c r="K61">
         <v>1</v>
       </c>
@@ -5695,6 +5764,9 @@
       <c r="I62">
         <v>1</v>
       </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
       <c r="K62">
         <v>1</v>
       </c>
@@ -5772,6 +5844,9 @@
       <c r="I63">
         <v>0</v>
       </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
       <c r="K63">
         <v>1</v>
       </c>
@@ -5849,6 +5924,9 @@
       <c r="I64">
         <v>0</v>
       </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
       <c r="K64">
         <v>1</v>
       </c>
@@ -5923,6 +6001,9 @@
       <c r="I65">
         <v>1</v>
       </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
       <c r="K65">
         <v>1</v>
       </c>
@@ -6154,6 +6235,9 @@
       <c r="I68">
         <v>1</v>
       </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
       <c r="K68">
         <v>1</v>
       </c>
@@ -6231,6 +6315,9 @@
       <c r="I69">
         <v>0</v>
       </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
       <c r="K69">
         <v>1</v>
       </c>
@@ -6385,6 +6472,9 @@
       <c r="I71">
         <v>0</v>
       </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
       <c r="K71">
         <v>1</v>
       </c>
@@ -6462,6 +6552,9 @@
       <c r="I72">
         <v>0</v>
       </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
       <c r="K72">
         <v>1</v>
       </c>
@@ -6693,6 +6786,9 @@
       <c r="I75">
         <v>1</v>
       </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
       <c r="K75">
         <v>1</v>
       </c>
@@ -6770,6 +6866,9 @@
       <c r="I76">
         <v>0</v>
       </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
       <c r="K76">
         <v>1</v>
       </c>
@@ -6998,6 +7097,9 @@
       <c r="I79">
         <v>0</v>
       </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
       <c r="K79">
         <v>1</v>
       </c>
@@ -7306,6 +7408,9 @@
       <c r="I83">
         <v>0</v>
       </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
       <c r="K83">
         <v>1</v>
       </c>
@@ -8111,6 +8216,9 @@
       <c r="I94">
         <v>0</v>
       </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
       <c r="K94">
         <v>1</v>
       </c>
@@ -8188,6 +8296,9 @@
       <c r="I95">
         <v>0</v>
       </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
       <c r="K95">
         <v>1</v>
       </c>
@@ -8265,6 +8376,9 @@
       <c r="I96">
         <v>0</v>
       </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
       <c r="K96">
         <v>1</v>
       </c>
@@ -8342,6 +8456,9 @@
       <c r="I97">
         <v>0</v>
       </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
       <c r="K97">
         <v>1</v>
       </c>
@@ -8419,6 +8536,9 @@
       <c r="I98">
         <v>1</v>
       </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
       <c r="K98">
         <v>1</v>
       </c>
@@ -8496,6 +8616,9 @@
       <c r="I99">
         <v>0</v>
       </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
       <c r="K99">
         <v>1</v>
       </c>
@@ -8573,6 +8696,9 @@
       <c r="I100">
         <v>0</v>
       </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
       <c r="K100">
         <v>1</v>
       </c>
@@ -8650,6 +8776,9 @@
       <c r="I101">
         <v>0</v>
       </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
       <c r="K101">
         <v>1</v>
       </c>
@@ -8727,6 +8856,9 @@
       <c r="I102">
         <v>0</v>
       </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
       <c r="K102">
         <v>1</v>
       </c>
@@ -8804,6 +8936,9 @@
       <c r="I103">
         <v>0</v>
       </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
       <c r="K103">
         <v>1</v>
       </c>
@@ -8881,6 +9016,9 @@
       <c r="I104">
         <v>0</v>
       </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
       <c r="K104">
         <v>1</v>
       </c>
@@ -9257,6 +9395,9 @@
       <c r="I109">
         <v>0</v>
       </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
       <c r="K109">
         <v>1</v>
       </c>
@@ -9488,6 +9629,9 @@
       <c r="I112">
         <v>0</v>
       </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
       <c r="K112">
         <v>1</v>
       </c>
@@ -9565,6 +9709,9 @@
       <c r="I113">
         <v>0</v>
       </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
       <c r="K113">
         <v>1</v>
       </c>
@@ -9719,6 +9866,9 @@
       <c r="I115">
         <v>0</v>
       </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
       <c r="K115">
         <v>1</v>
       </c>
@@ -9796,6 +9946,9 @@
       <c r="I116">
         <v>0</v>
       </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
       <c r="K116">
         <v>1</v>
       </c>
@@ -9873,6 +10026,9 @@
       <c r="I117">
         <v>1</v>
       </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
       <c r="K117">
         <v>1</v>
       </c>
@@ -9950,6 +10106,9 @@
       <c r="I118">
         <v>0</v>
       </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
       <c r="K118">
         <v>1</v>
       </c>
@@ -10027,6 +10186,9 @@
       <c r="I119">
         <v>0</v>
       </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
       <c r="K119">
         <v>1</v>
       </c>
@@ -10104,6 +10266,9 @@
       <c r="I120">
         <v>0</v>
       </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
       <c r="K120">
         <v>1</v>
       </c>
@@ -10181,6 +10346,9 @@
       <c r="I121">
         <v>0</v>
       </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
       <c r="K121">
         <v>1</v>
       </c>
@@ -10258,6 +10426,9 @@
       <c r="I122">
         <v>0</v>
       </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
       <c r="K122">
         <v>1</v>
       </c>
@@ -10640,6 +10811,9 @@
       <c r="I127">
         <v>0</v>
       </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
       <c r="K127">
         <v>1</v>
       </c>
@@ -10717,6 +10891,9 @@
       <c r="I128">
         <v>0</v>
       </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
       <c r="K128">
         <v>1</v>
       </c>
@@ -10871,6 +11048,9 @@
       <c r="I130">
         <v>1</v>
       </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
       <c r="K130">
         <v>1</v>
       </c>
@@ -11173,6 +11353,9 @@
       <c r="I134">
         <v>1</v>
       </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
       <c r="K134">
         <v>1</v>
       </c>
@@ -11629,6 +11812,9 @@
       <c r="I140">
         <v>0</v>
       </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
       <c r="K140">
         <v>1</v>
       </c>
@@ -11706,6 +11892,9 @@
       <c r="I141">
         <v>0</v>
       </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
       <c r="K141">
         <v>1</v>
       </c>
@@ -11783,6 +11972,9 @@
       <c r="I142">
         <v>0</v>
       </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
       <c r="K142">
         <v>1</v>
       </c>
@@ -11854,6 +12046,9 @@
       <c r="I143">
         <v>1</v>
       </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
       <c r="K143">
         <v>1</v>
       </c>
@@ -11931,6 +12126,9 @@
       <c r="I144">
         <v>0</v>
       </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
       <c r="K144">
         <v>1</v>
       </c>
@@ -12008,6 +12206,9 @@
       <c r="I145">
         <v>0</v>
       </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
       <c r="K145">
         <v>1</v>
       </c>
@@ -12085,6 +12286,9 @@
       <c r="I146">
         <v>1</v>
       </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
       <c r="K146">
         <v>1</v>
       </c>
@@ -12162,6 +12366,9 @@
       <c r="I147">
         <v>0</v>
       </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
       <c r="K147">
         <v>1</v>
       </c>
@@ -12239,6 +12446,9 @@
       <c r="I148">
         <v>0</v>
       </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
       <c r="K148">
         <v>1</v>
       </c>
@@ -12692,6 +12902,9 @@
       <c r="I154">
         <v>1</v>
       </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
       <c r="K154">
         <v>1</v>
       </c>
@@ -12846,6 +13059,9 @@
       <c r="I156">
         <v>0</v>
       </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
       <c r="K156">
         <v>1</v>
       </c>
@@ -13302,6 +13518,9 @@
       <c r="I162">
         <v>0</v>
       </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
       <c r="K162">
         <v>1</v>
       </c>
@@ -13456,6 +13675,9 @@
       <c r="I164">
         <v>1</v>
       </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
       <c r="K164">
         <v>1</v>
       </c>
@@ -13533,6 +13755,9 @@
       <c r="I165">
         <v>0</v>
       </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
       <c r="K165">
         <v>1</v>
       </c>
@@ -13610,6 +13835,9 @@
       <c r="I166">
         <v>0</v>
       </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
       <c r="K166">
         <v>1</v>
       </c>
@@ -13687,6 +13915,9 @@
       <c r="I167">
         <v>0</v>
       </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
       <c r="K167">
         <v>1</v>
       </c>
@@ -13764,6 +13995,9 @@
       <c r="I168">
         <v>0</v>
       </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
       <c r="K168">
         <v>1</v>
       </c>
@@ -13841,6 +14075,9 @@
       <c r="I169">
         <v>0</v>
       </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
       <c r="K169">
         <v>1</v>
       </c>
@@ -14072,6 +14309,9 @@
       <c r="I172">
         <v>1</v>
       </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
       <c r="K172">
         <v>1</v>
       </c>
@@ -14149,6 +14389,9 @@
       <c r="I173">
         <v>0</v>
       </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
       <c r="K173">
         <v>1</v>
       </c>
@@ -14226,6 +14469,9 @@
       <c r="I174">
         <v>1</v>
       </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
       <c r="K174">
         <v>1</v>
       </c>
@@ -14380,6 +14626,9 @@
       <c r="I176">
         <v>0</v>
       </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
       <c r="K176">
         <v>1</v>
       </c>
@@ -14457,6 +14706,9 @@
       <c r="I177">
         <v>0</v>
       </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
       <c r="K177">
         <v>1</v>
       </c>
@@ -14688,6 +14940,9 @@
       <c r="I180">
         <v>0</v>
       </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
       <c r="K180">
         <v>1</v>
       </c>
@@ -14765,6 +15020,9 @@
       <c r="I181">
         <v>0</v>
       </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
       <c r="K181">
         <v>1</v>
       </c>
@@ -14913,6 +15171,9 @@
       <c r="I183">
         <v>0</v>
       </c>
+      <c r="J183">
+        <v>1</v>
+      </c>
       <c r="K183">
         <v>1</v>
       </c>
@@ -15751,6 +16012,9 @@
       <c r="I194">
         <v>0</v>
       </c>
+      <c r="J194">
+        <v>1</v>
+      </c>
       <c r="K194">
         <v>1</v>
       </c>
@@ -15828,6 +16092,9 @@
       <c r="I195">
         <v>0</v>
       </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
       <c r="K195">
         <v>1</v>
       </c>
@@ -15905,6 +16172,9 @@
       <c r="I196">
         <v>1</v>
       </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
       <c r="K196">
         <v>1</v>
       </c>
@@ -15982,6 +16252,9 @@
       <c r="I197">
         <v>1</v>
       </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
       <c r="K197">
         <v>1</v>
       </c>
@@ -16059,6 +16332,9 @@
       <c r="I198">
         <v>0</v>
       </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
       <c r="K198">
         <v>1</v>
       </c>
@@ -16136,6 +16412,9 @@
       <c r="I199">
         <v>0</v>
       </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
       <c r="K199">
         <v>1</v>
       </c>
@@ -16213,6 +16492,9 @@
       <c r="I200">
         <v>1</v>
       </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
       <c r="K200">
         <v>1</v>
       </c>
@@ -16290,6 +16572,9 @@
       <c r="I201">
         <v>0</v>
       </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
       <c r="K201">
         <v>1</v>
       </c>
@@ -16444,6 +16729,9 @@
       <c r="I203">
         <v>0</v>
       </c>
+      <c r="J203">
+        <v>1</v>
+      </c>
       <c r="K203">
         <v>1</v>
       </c>
@@ -16903,6 +17191,9 @@
       <c r="I209">
         <v>0</v>
       </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
       <c r="K209">
         <v>1</v>
       </c>
@@ -18034,6 +18325,9 @@
       <c r="I224">
         <v>1</v>
       </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
       <c r="K224">
         <v>1</v>
       </c>
@@ -18496,6 +18790,9 @@
       <c r="I230">
         <v>0</v>
       </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
       <c r="K230">
         <v>1</v>
       </c>
@@ -19112,6 +19409,9 @@
       <c r="I238">
         <v>0</v>
       </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
       <c r="K238">
         <v>1</v>
       </c>
@@ -21244,6 +21544,9 @@
       <c r="I266">
         <v>0</v>
       </c>
+      <c r="J266">
+        <v>0</v>
+      </c>
       <c r="K266">
         <v>1</v>
       </c>
@@ -21552,6 +21855,9 @@
       <c r="I270">
         <v>1</v>
       </c>
+      <c r="J270">
+        <v>0</v>
+      </c>
       <c r="K270">
         <v>1</v>
       </c>
@@ -22621,6 +22927,9 @@
       <c r="I284">
         <v>0</v>
       </c>
+      <c r="J284">
+        <v>0</v>
+      </c>
       <c r="K284">
         <v>1</v>
       </c>
@@ -23308,6 +23617,9 @@
       <c r="I293">
         <v>0</v>
       </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
       <c r="K293">
         <v>1</v>
       </c>
@@ -23752,6 +24064,9 @@
       <c r="G299">
         <v>0</v>
       </c>
+      <c r="J299">
+        <v>0</v>
+      </c>
       <c r="K299">
         <v>1</v>
       </c>
@@ -24125,6 +24440,9 @@
       <c r="I304">
         <v>1</v>
       </c>
+      <c r="J304">
+        <v>0</v>
+      </c>
       <c r="K304">
         <v>1</v>
       </c>
@@ -24741,6 +25059,9 @@
       <c r="I312">
         <v>1</v>
       </c>
+      <c r="J312">
+        <v>0</v>
+      </c>
       <c r="K312">
         <v>1</v>
       </c>
@@ -24889,6 +25210,9 @@
       <c r="G314">
         <v>0</v>
       </c>
+      <c r="J314">
+        <v>0</v>
+      </c>
       <c r="K314">
         <v>1</v>
       </c>
@@ -24966,6 +25290,9 @@
       <c r="I315">
         <v>0</v>
       </c>
+      <c r="J315">
+        <v>1</v>
+      </c>
       <c r="K315">
         <v>1</v>
       </c>
@@ -25114,6 +25441,9 @@
       <c r="I317">
         <v>0</v>
       </c>
+      <c r="J317">
+        <v>1</v>
+      </c>
       <c r="K317">
         <v>1</v>
       </c>
@@ -25490,6 +25820,9 @@
       <c r="I322">
         <v>0</v>
       </c>
+      <c r="J322">
+        <v>0</v>
+      </c>
       <c r="K322">
         <v>1</v>
       </c>
@@ -25715,6 +26048,9 @@
       <c r="I325">
         <v>1</v>
       </c>
+      <c r="J325">
+        <v>0</v>
+      </c>
       <c r="K325">
         <v>1</v>
       </c>
@@ -25940,6 +26276,9 @@
       <c r="I328">
         <v>1</v>
       </c>
+      <c r="J328">
+        <v>1</v>
+      </c>
       <c r="K328">
         <v>1</v>
       </c>
@@ -26094,6 +26433,9 @@
       <c r="I330">
         <v>0</v>
       </c>
+      <c r="J330">
+        <v>1</v>
+      </c>
       <c r="K330">
         <v>1</v>
       </c>
@@ -26170,6 +26512,9 @@
       </c>
       <c r="I331">
         <v>1</v>
+      </c>
+      <c r="J331">
+        <v>0</v>
       </c>
       <c r="K331">
         <v>1</v>

--- a/04_data/hrm.xlsx
+++ b/04_data/hrm.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="144" documentId="8_{D93C9B40-ED47-4344-B7E9-73E776B68CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE0D4D33-E8AF-431A-82D2-AE35A9F4F992}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-2316" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HRM" sheetId="1" r:id="rId1"/>
@@ -964,7 +964,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B179" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
